--- a/public/assets/file-excel/siswa.xlsx
+++ b/public/assets/file-excel/siswa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cbtmalela_l8\public\assets\file-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Pembelajaran Online\public\assets\file-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D97E43-43B0-4D2C-8F12-A660AFE01BD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52A4A38-011F-41C4-AFAE-BA23BE53ECCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1485" windowWidth="21600" windowHeight="11565" xr2:uid="{2D50D8C5-1850-42DF-9825-66764CA2D575}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="15375" windowHeight="7995" xr2:uid="{2D50D8C5-1850-42DF-9825-66764CA2D575}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>email</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>el@gmail.com</t>
+  </si>
+  <si>
+    <t>nis_final</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -122,17 +128,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -463,100 +459,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6921752A-9BF1-4EBB-AD67-29068662A9F9}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="1" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>18078100</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>18078101</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>18078102</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  <conditionalFormatting sqref="A1:B1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{11C46AC3-2619-4E69-BB6C-E112F76DFD3C}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{D962F7A3-409A-49FD-944F-DAC9282CC464}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{BF054ED3-02BD-4ECE-A968-8730FF3D4D62}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{11C46AC3-2619-4E69-BB6C-E112F76DFD3C}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{D962F7A3-409A-49FD-944F-DAC9282CC464}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{BF054ED3-02BD-4ECE-A968-8730FF3D4D62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
